--- a/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面开发计划" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
   <si>
     <t>功能模块</t>
   </si>
@@ -804,6 +804,22 @@
   </si>
   <si>
     <t>按商品，配件类别，配件品牌，业务类型汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾史强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +866,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +876,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,11 +1016,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2402,7 +2439,8 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3255,11 +3293,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:V51"/>
-    <mergeCell ref="T2:AA2"/>
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="L93:P93"/>
     <mergeCell ref="A73:C73"/>
@@ -3268,6 +3301,11 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:V51"/>
+    <mergeCell ref="T2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3280,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3289,7 +3327,7 @@
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3297,7 +3335,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C1" t="s">
@@ -3314,7 +3352,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" t="s">
         <v>121</v>
       </c>
@@ -3326,7 +3364,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>122</v>
       </c>
@@ -3338,7 +3376,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" t="s">
         <v>124</v>
       </c>
@@ -3350,7 +3388,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -3362,7 +3400,7 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>126</v>
       </c>
@@ -3374,7 +3412,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -3386,7 +3424,7 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
@@ -3401,7 +3439,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
@@ -3416,7 +3454,7 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -3431,7 +3469,7 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3448,7 +3486,7 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -3460,7 +3498,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>170</v>
       </c>
@@ -3475,7 +3513,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
         <v>134</v>
       </c>
@@ -3487,7 +3525,7 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" t="s">
         <v>135</v>
       </c>
@@ -3499,7 +3537,7 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C16" t="s">
@@ -3516,7 +3554,7 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>137</v>
       </c>
@@ -3531,7 +3569,7 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>138</v>
       </c>
@@ -3546,7 +3584,7 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
         <v>166</v>
       </c>
@@ -3561,7 +3599,7 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
         <v>168</v>
       </c>
@@ -3576,7 +3614,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
         <v>167</v>
       </c>
@@ -3591,7 +3629,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>139</v>
       </c>
@@ -3606,7 +3644,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>140</v>
       </c>
@@ -3621,7 +3659,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>162</v>
       </c>
@@ -3652,7 +3690,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="9" t="s">
         <v>186</v>
       </c>
@@ -3662,81 +3700,110 @@
       <c r="C35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="B36" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C36" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="B37" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="B38" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="B39" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="B40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="21" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="B42" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="B43" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="22" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="B44" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="B45" s="9" t="s">
         <v>189</v>
       </c>
@@ -3744,63 +3811,87 @@
         <v>196</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="B46" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="B47" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="B48" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="D48" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="D49" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="D50" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
       <c r="B51" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="D51" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面开发计划" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="204">
   <si>
     <t>功能模块</t>
   </si>
@@ -820,6 +820,10 @@
   </si>
   <si>
     <t>莫敏兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计次卡抵扣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -998,6 +1002,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,15 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2048,7 +2052,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2068,7 +2072,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2086,8 +2090,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2104,8 +2108,8 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2120,8 +2124,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2136,8 +2140,8 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2152,8 +2156,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2168,8 +2172,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2184,8 +2188,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2200,8 +2204,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2216,8 +2220,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
@@ -2232,8 +2236,8 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
@@ -2248,8 +2252,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
@@ -2264,8 +2268,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
@@ -2448,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2463,39 +2467,39 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
@@ -2541,7 +2545,7 @@
         <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>44</v>
@@ -2759,32 +2763,32 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -2960,35 +2964,35 @@
       </c>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18" t="s">
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18" t="s">
+      <c r="L73" s="21"/>
+      <c r="M73" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18" t="s">
+      <c r="N73" s="21"/>
+      <c r="O73" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
@@ -3166,26 +3170,26 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18" t="s">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="3" t="s">
@@ -3293,6 +3297,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:V51"/>
+    <mergeCell ref="T2:AA2"/>
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="L93:P93"/>
     <mergeCell ref="A73:C73"/>
@@ -3301,11 +3310,6 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:V51"/>
-    <mergeCell ref="T2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3318,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -3335,7 +3339,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>187</v>
       </c>
       <c r="C1" t="s">
@@ -3352,7 +3356,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" t="s">
         <v>121</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>122</v>
       </c>
@@ -3376,7 +3380,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" t="s">
         <v>124</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>126</v>
       </c>
@@ -3412,7 +3416,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -3424,7 +3428,7 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
@@ -3439,7 +3443,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -3469,7 +3473,7 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3486,7 +3490,7 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -3498,7 +3502,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
         <v>170</v>
       </c>
@@ -3513,7 +3517,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>134</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" t="s">
         <v>135</v>
       </c>
@@ -3537,7 +3541,7 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C16" t="s">
@@ -3554,7 +3558,7 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" t="s">
         <v>137</v>
       </c>
@@ -3569,7 +3573,7 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>138</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
         <v>166</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
         <v>168</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
         <v>167</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>139</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>140</v>
       </c>
@@ -3659,7 +3663,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
         <v>162</v>
       </c>
@@ -3741,7 +3745,7 @@
       <c r="B39" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -3752,7 +3756,7 @@
       <c r="B40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -3763,7 +3767,7 @@
       <c r="B41" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -3774,7 +3778,7 @@
       <c r="B42" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="13" t="s">
         <v>193</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -3785,7 +3789,7 @@
       <c r="B43" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -3796,7 +3800,7 @@
       <c r="B44" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="15" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="9" t="s">

--- a/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="界面开发计划" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="281">
   <si>
     <t>功能模块</t>
   </si>
@@ -826,12 +826,243 @@
     <t>计次卡抵扣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>rp_type_id :</t>
+  </si>
+  <si>
+    <t>此处理为：其他收支费用明细</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>SELECT a.guest_name as guestName, a.bill_type_id as billTypeId,</t>
+  </si>
+  <si>
+    <t>from wb_frm.fis_rp_bill a</t>
+  </si>
+  <si>
+    <t>where rp_type_id = 2</t>
+  </si>
+  <si>
+    <t>往来单位名称</t>
+  </si>
+  <si>
+    <t>收支项目</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>交易类型</t>
+  </si>
+  <si>
+    <t>发生日期</t>
+  </si>
+  <si>
+    <t>收支单号</t>
+  </si>
+  <si>
+    <t>审核人</t>
+  </si>
+  <si>
+    <t>审核日期</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
+    <t>结算状态</t>
+  </si>
+  <si>
+    <t>　guestName</t>
+  </si>
+  <si>
+    <t>　billTypeId</t>
+  </si>
+  <si>
+    <t>　charOffAmt</t>
+  </si>
+  <si>
+    <t>　remark</t>
+  </si>
+  <si>
+    <t>　billDc(收/支)</t>
+  </si>
+  <si>
+    <t>　createDate</t>
+  </si>
+  <si>
+    <t>　rpBillId</t>
+  </si>
+  <si>
+    <t>　auditor</t>
+  </si>
+  <si>
+    <t>　auditDate</t>
+  </si>
+  <si>
+    <t>　auditSign</t>
+  </si>
+  <si>
+    <t>　settleStatus</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>1、代表正常的业务数据生成的应收应付；</t>
+  </si>
+  <si>
+    <t>2、代表其它应收应付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3、代表初始化时的应收应付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     a.bill_dc as billDc, a.rp_amt as rpAmt, a.char_off_amt as charOffAmt,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       a.auditor, a.audit_sign as auditSign, a.audit_date as auditDate, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       a.settle_status as settleStatus, a.remark as remark, a.rp_bill_id as rpBillId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       a.create_date as createDate,a.guest_id</t>
+  </si>
+  <si>
+    <t>此处为：施工项目汇总表</t>
+  </si>
+  <si>
+    <t>查询条件要求：根据结算日期查询  out_date</t>
+  </si>
+  <si>
+    <t>汇总方式：日期/业务类型/项目名称</t>
+  </si>
+  <si>
+    <t>/*按日期统计：  日期， 施工台次，工时时间，工时收入，工时成本，返工台次，返工台次占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  返工台次单独查询，前端拼接后显示返工台次，返工台次占比</t>
+  </si>
+  <si>
+    <t>SELECT b.datekey as groupName, count(DISTINCT b.id) as tc, sum(a.item_time) as itemTime,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(a.subtotal) as subtotal, sum(total_deduct_amt) as costAmt</t>
+  </si>
+  <si>
+    <t>from wb_repair.rps_item a</t>
+  </si>
+  <si>
+    <t>inner join wb_repair.rps_maintain b</t>
+  </si>
+  <si>
+    <t>on a.service_id = b.id</t>
+  </si>
+  <si>
+    <t>where b.is_settle = 1</t>
+  </si>
+  <si>
+    <t>GROUP BY b.datekey</t>
+  </si>
+  <si>
+    <t>order by tc</t>
+  </si>
+  <si>
+    <t>SELECT b.datekey as dateKey, count(DISTINCT b.id) as tc</t>
+  </si>
+  <si>
+    <t>where b.is_settle = 1 and ifnull(a.is_back,0) = 1</t>
+  </si>
+  <si>
+    <t>/*按项目名称统计：  业务类型， 施工台次，工时时间，工时收入，工时成本，返工台次，返工台次占比</t>
+  </si>
+  <si>
+    <t>SELECT a.service_type_id as serviceTypeId, count(DISTINCT b.id) as tc, sum(a.item_time) as itemTime,</t>
+  </si>
+  <si>
+    <t>GROUP BY a.service_type_id</t>
+  </si>
+  <si>
+    <t>SELECT a.service_type_id as serviceTypeId, count(DISTINCT b.id) as tc</t>
+  </si>
+  <si>
+    <t>/*按业务类型统计：  业务类型， 施工台次，工时时间，工时收入，工时成本，返工台次，返工台次占比</t>
+  </si>
+  <si>
+    <t>SELECT a.item_name as itemName, count(DISTINCT b.id) as tc, sum(a.item_time) as itemTime,</t>
+  </si>
+  <si>
+    <t>GROUP BY a.item_name</t>
+  </si>
+  <si>
+    <t>SELECT a.service_type_id as itemName, count(DISTINCT b.id) as tc</t>
+  </si>
+  <si>
+    <t>此处为：施工项目明细</t>
+  </si>
+  <si>
+    <t>显示内容：业务类型，工时名称，车牌号，品牌/车型，客户名称，车架号(VIN),</t>
+  </si>
+  <si>
+    <t>SELECT a.service_type_id as serviceTypeId, a.item_name as itemName, b.car_no as carNo, c.car_model as carModel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       d.full_name as guestName, b.car_vin as carVin, a.item_time as itemTime, a.unit_price as unitPrice,</t>
+  </si>
+  <si>
+    <t>inner join wb_repair.rpb_car c</t>
+  </si>
+  <si>
+    <t>on b.car_id = c.id</t>
+  </si>
+  <si>
+    <t>inner join wb_common.com_guest d</t>
+  </si>
+  <si>
+    <t>on b.guest_id = d.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       a.amt as amt, a.rate as rate, a.subtotal as subtotal, a.workers as workers, a.status, a.is_back as isBack,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          工时，单价，金额，优惠率，小计，施工员，状态，是否返工, 完工日期, 服务顾问，工单号</t>
+  </si>
+  <si>
+    <t>查询条件要求：根据结算日期查询  out_date，   &gt;,&lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              根据施工员查询 worker_ids      in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              根据服务顾问查询 b.mt_advisor  =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              根据工单号查询 b.service_code  =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              根据车牌号查询 b.car_no        =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              根据工时名称查询 a.item_name   like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       a.finish_date as finishDate, b.mt_advisor as mtAdvisor, b.service_code as serviceCode, b.out_date as outDate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       b.enter_date as enterDate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,6 +1100,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -896,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -956,13 +1194,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC5C5C5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC5C5C5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC5C5C5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC5C5C5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC5C5C5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC5C5C5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC5C5C5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC5C5C5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC5C5C5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC5C5C5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC5C5C5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC5C5C5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1324,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2007,6 +2312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
@@ -2296,6 +2602,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -2312,10 +2619,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A35:D35"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A35:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2332,6 +2640,131 @@
       </c>
       <c r="D35" s="9" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2776,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H2"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2372,6 +2806,301 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2381,6 +3110,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2397,6 +3127,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2417,6 +3148,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2433,6 +3165,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2450,10 +3183,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3297,11 +4031,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:V51"/>
-    <mergeCell ref="T2:AA2"/>
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="L93:P93"/>
     <mergeCell ref="A73:C73"/>
@@ -3310,6 +4039,11 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:V51"/>
+    <mergeCell ref="T2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,9 +4054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -3911,9 +4646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3927,10 +4663,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K5"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4009,6 +4746,191 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
+    <row r="8" spans="1:11" ht="16.5">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="33.75" thickBot="1">
+      <c r="A11" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="50.25" thickBot="1">
+      <c r="A12" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4017,9 +4939,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -4047,6 +4970,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,6 +4987,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4079,9 +5004,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>

--- a/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
+++ b/DOC/开发计划/SAAS项目-PC端开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="2340" yWindow="180" windowWidth="20730" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面开发计划" sheetId="18" r:id="rId1"/>
@@ -1301,6 +1301,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,21 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,8 +2315,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2378,7 +2378,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2396,8 +2396,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2414,8 +2414,8 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2430,8 +2430,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2478,8 +2478,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2494,8 +2494,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2510,8 +2510,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2526,8 +2526,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
@@ -2558,8 +2558,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
@@ -2574,8 +2574,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
@@ -2622,7 +2622,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A35:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:H68"/>
     </sheetView>
   </sheetViews>
@@ -3186,7 +3186,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
@@ -3201,39 +3201,39 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
@@ -3497,32 +3497,32 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -3698,35 +3698,35 @@
       </c>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21" t="s">
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21" t="s">
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21" t="s">
+      <c r="L73" s="26"/>
+      <c r="M73" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21" t="s">
+      <c r="N73" s="26"/>
+      <c r="O73" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
@@ -3904,26 +3904,26 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="3" t="s">
@@ -4031,6 +4031,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:V51"/>
+    <mergeCell ref="T2:AA2"/>
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="L93:P93"/>
     <mergeCell ref="A73:C73"/>
@@ -4039,11 +4044,6 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:V51"/>
-    <mergeCell ref="T2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4074,7 +4074,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C1" t="s">
@@ -4091,7 +4091,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="28"/>
       <c r="C2" t="s">
         <v>121</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" t="s">
         <v>122</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>124</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>126</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>145</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -4225,7 +4225,7 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="28"/>
       <c r="C12" t="s">
         <v>133</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="9" t="s">
         <v>170</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="28"/>
       <c r="C14" t="s">
         <v>134</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="28"/>
       <c r="C15" t="s">
         <v>135</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="27" t="s">
         <v>189</v>
       </c>
       <c r="C16" t="s">
@@ -4293,7 +4293,7 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="28"/>
       <c r="C17" t="s">
         <v>137</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="28"/>
       <c r="C18" t="s">
         <v>138</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>166</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
         <v>168</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
         <v>167</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" t="s">
         <v>139</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23" t="s">
         <v>140</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>162</v>
       </c>
@@ -4747,119 +4747,119 @@
       <c r="K5" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="24"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="33.75" thickBot="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="18" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="50.25" thickBot="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
